--- a/output/cost-template.xlsx
+++ b/output/cost-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abma\Desktop\generate cost\generate-report\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D11754-1264-47F7-A29D-CF54C26D5C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEEC7A6-857B-407D-A5C8-81A6D0940EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11256" yWindow="6612" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="540" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Area</t>
   </si>
@@ -40,16 +40,19 @@
     <t>Length</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type Name </t>
-  </si>
-  <si>
     <t>Volume</t>
   </si>
   <si>
     <t>Width</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Type Name</t>
+  </si>
+  <si>
+    <t>externalId</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,14 +461,15 @@
     <col min="4" max="4" width="11.21875" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.21875" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -474,10 +478,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
